--- a/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,90 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19090000</v>
+      </c>
+      <c r="E8" s="3">
         <v>17988000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16407000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14778000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13228000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12242000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11313000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10309000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9141000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,9 +776,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -844,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,9 +890,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,27 +923,30 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-240000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-196000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-174000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-147000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
@@ -934,9 +956,12 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +971,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6471000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7415000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6687000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5234000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4087000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3839000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3814000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3310000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3190000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12619000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10573000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9720000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9544000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9141000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8403000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7499000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6999000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5951000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,68 +1052,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7732000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6929000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6396000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5974000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5610000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5017000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4357000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3623000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2941000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5254000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3946000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3578000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3789000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3705000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3517000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3246000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>3106000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1109,69 +1148,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4887000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3644000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3324000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3570000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3531000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3386000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3142000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3376000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3010000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1140000</v>
+      </c>
+      <c r="E24" s="3">
         <v>854000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1229000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1319000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1317000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1277000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1163000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1257000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1120000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3747000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2790000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2095000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2251000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2214000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2109000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1979000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2119000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1890000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3747000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2790000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2095000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2251000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2214000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2109000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1979000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2119000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1890000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,21 +1346,24 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>-160000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1319,9 +1379,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1445,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7732000</v>
+      </c>
+      <c r="E32" s="3">
         <v>6929000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6396000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5974000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5610000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5017000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4357000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3623000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2941000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3747000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2790000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1935000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2251000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2214000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2109000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1979000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2119000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1890000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3747000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2790000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1935000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2251000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2214000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2109000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1979000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2119000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1890000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,38 +1648,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12147000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9396000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11602000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9321000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12325000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11828000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2319000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1334000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1187000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,9 +1711,12 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1652,9 +1744,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1682,9 +1777,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1712,9 +1810,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1742,9 +1843,12 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1772,9 +1876,12 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1802,39 +1909,45 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2161000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1740000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1661000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1650000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1468000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1249000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1191000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1188000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,9 +2008,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1922,9 +2041,12 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104826000</v>
+      </c>
+      <c r="E54" s="3">
         <v>106792000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95808000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90207000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83990000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75707000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59085000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53462000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50115000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,8 +2140,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2040,9 +2170,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2070,39 +2203,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4718000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4099000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4287000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3809000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3740000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2814000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3085000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2261000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2065000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2130,39 +2269,45 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19866000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23996000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20799000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20147000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24279000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27460000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24321000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27815000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25890000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2190,9 +2335,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>89738000</v>
+      </c>
+      <c r="E66" s="3">
         <v>92114000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81574000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76011000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71386000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65229000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53125000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>48880000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45787000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,14 +2548,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12117000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8986000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6809000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5330000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3293000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1079000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14354000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14678000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14234000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14196000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12604000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10478000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5960000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4582000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4328000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3747000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2790000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1935000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2251000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2214000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2109000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1979000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2119000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1890000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2901,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E83" s="3">
         <v>302000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>254000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>219000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>174000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>131000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>104000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>96000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3096,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8990000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9342000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8575000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6511000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6184000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5340000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5679000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5637000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5516000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,8 +3147,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2957,9 +3177,12 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3243,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19036000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9542000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13364000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10803000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10068000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1066000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,23 +3294,24 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-581000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-534000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-446000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-214000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3091,9 +3324,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,39 +3423,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6458000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8253000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3116000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3805000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5116000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14237000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3628000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2978000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3235,43 +3483,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2271000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1441000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2149000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3048000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>497000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9509000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>985000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>147000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>968000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16067000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19090000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17988000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16407000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14778000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13228000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12242000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11313000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10309000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9141000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,9 +786,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,9 +822,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,9 +910,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -926,30 +946,33 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-327000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-301000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-240000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-196000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-174000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-147000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
@@ -959,9 +982,12 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5875000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6471000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7415000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6687000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5234000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4087000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3839000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3814000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3310000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3190000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10192000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12619000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10573000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9720000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9544000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9141000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8403000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7499000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6999000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5951000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,74 +1086,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8395000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7732000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6929000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6396000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5974000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5610000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5017000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4357000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3623000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2941000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5254000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3946000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3578000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3789000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3705000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3517000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3246000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>3106000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1151,75 +1191,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4887000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3644000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3324000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3570000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3531000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3386000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3142000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3376000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3010000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1140000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>854000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1229000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1319000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1317000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1277000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1163000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1257000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1120000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1385000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3747000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2790000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2095000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2251000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2214000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2109000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1979000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2119000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1890000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3747000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2790000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2095000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2251000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2214000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2109000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1979000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2119000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1890000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,9 +1407,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,12 +1422,12 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>-160000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1382,9 +1443,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8395000</v>
+      </c>
+      <c r="E32" s="3">
         <v>7732000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6929000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6396000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5974000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5610000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5017000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4357000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3623000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2941000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3747000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2790000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1935000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2251000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2214000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2109000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1979000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2119000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1890000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3747000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2790000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1935000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2251000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2214000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2109000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1979000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2119000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1890000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,41 +1735,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11524000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12147000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9396000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11602000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9321000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12325000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11828000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2319000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1334000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1187000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,9 +1804,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1747,9 +1840,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1780,9 +1876,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1813,9 +1912,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1846,9 +1948,12 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,9 +1984,12 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1912,42 +2020,48 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2343000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2161000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1740000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1661000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1650000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1468000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1249000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1191000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1188000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,9 +2128,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2044,9 +2164,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95948000</v>
+      </c>
+      <c r="E54" s="3">
         <v>104826000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106792000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95808000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90207000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83990000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75707000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59085000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53462000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50115000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,8 +2271,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2173,9 +2304,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2206,42 +2340,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4718000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4099000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4287000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3809000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3740000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2814000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3085000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2261000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2065000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2272,42 +2412,48 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15775000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19866000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23996000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20799000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20147000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24279000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27460000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24321000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27815000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25890000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2338,9 +2484,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83247000</v>
+      </c>
+      <c r="E66" s="3">
         <v>89738000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>92114000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>81574000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76011000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71386000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65229000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53125000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48880000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45787000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,7 +2729,7 @@
         <v>734000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2584,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10621000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12117000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8986000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6809000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5330000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3293000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1079000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11967000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14354000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14678000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14234000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14196000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12604000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10478000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5960000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4582000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4328000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3747000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2790000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1935000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2251000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2214000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2109000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1979000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2119000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1890000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E83" s="3">
         <v>367000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>302000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>254000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>219000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>174000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>131000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>104000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>96000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7487000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8990000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9342000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8575000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6511000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6184000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5340000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5679000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5637000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5516000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,8 +3368,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3180,9 +3401,12 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-498000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-261000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19036000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9542000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13364000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10803000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10068000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1066000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,26 +3528,27 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-562000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-581000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-534000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-446000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-214000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3327,9 +3561,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,42 +3669,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8031000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6458000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8253000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3116000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3805000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5116000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14237000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3628000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2978000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3486,46 +3735,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1042000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2271000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1441000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2149000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3048000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>497000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9509000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>985000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>147000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>968000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,103 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15271000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16067000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19090000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17988000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16407000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14778000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13228000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12242000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11313000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10309000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9141000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,9 +795,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,9 +834,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +854,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,9 +890,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,9 +929,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -949,33 +968,36 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-327000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-301000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-240000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-196000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-174000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-147000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
@@ -985,9 +1007,12 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5875000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6471000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7415000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6687000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5234000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4087000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3839000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3814000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3310000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3190000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13513000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10192000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12619000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10573000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9720000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9544000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9141000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8403000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7499000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6999000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5951000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,80 +1119,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8010000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8395000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7732000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6929000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6396000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5974000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5610000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5017000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4357000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3623000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2941000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5893000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2180000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5254000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3946000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3578000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3789000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3705000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3517000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3246000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>3106000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1194,81 +1233,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5503000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1797000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4887000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3644000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3324000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3570000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3531000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3386000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3142000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3376000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3010000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="E24" s="3">
         <v>412000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1140000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>854000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1229000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1319000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1317000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1277000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1163000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1257000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1120000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4221000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1385000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3747000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2790000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2095000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2251000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2214000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2109000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1979000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2119000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1890000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4179000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1343000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3747000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2790000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2095000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2251000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2214000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2109000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1979000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2119000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1890000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,9 +1467,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,12 +1485,12 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>-160000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1446,9 +1506,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8010000</v>
+      </c>
+      <c r="E32" s="3">
         <v>8395000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7732000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6929000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6396000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5974000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5610000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5017000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4357000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3623000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2941000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4179000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1343000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3747000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2790000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1935000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2251000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2214000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2109000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1979000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2119000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1890000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4179000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1343000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3747000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2790000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1935000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2251000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2214000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2109000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1979000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2119000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1890000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,44 +1821,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8337000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11524000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12147000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9396000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11602000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9321000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12325000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11828000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2319000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1334000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1187000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1807,9 +1896,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1843,9 +1935,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1879,9 +1974,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1915,9 +2013,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1951,9 +2052,12 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1987,9 +2091,12 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2023,45 +2130,51 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2203000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2343000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2161000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1740000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1661000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1650000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1468000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1249000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1191000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1188000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,9 +2247,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2167,9 +2286,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95748000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95948000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>104826000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>106792000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95808000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90207000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83990000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75707000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59085000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53462000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50115000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,8 +2401,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2307,9 +2437,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2343,45 +2476,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5316000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4690000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4718000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4099000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4287000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3809000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3740000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2814000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3085000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2261000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2065000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2415,45 +2554,51 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14507000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15775000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19866000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23996000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20799000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20147000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24279000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27460000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24321000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27815000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25890000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2487,9 +2632,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82093000</v>
+      </c>
+      <c r="E66" s="3">
         <v>83247000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>89738000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>92114000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>81574000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76011000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71386000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65229000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53125000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48880000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45787000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,7 +2899,7 @@
         <v>734000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14245000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10621000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12117000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8986000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6809000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5330000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3293000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1079000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12921000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11967000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14354000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14678000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14234000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14196000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12604000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10478000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5960000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4582000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4328000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4179000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1343000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3747000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2790000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1935000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2251000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2214000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2109000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1979000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2119000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1890000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E83" s="3">
         <v>383000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>367000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>302000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>254000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>219000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>174000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>131000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>104000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>96000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7099000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7487000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8990000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9342000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8575000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6511000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6184000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5340000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5679000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5637000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5516000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,8 +3588,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3404,9 +3624,12 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4814000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-498000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-261000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19036000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9542000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13364000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10803000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10068000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1066000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,29 +3761,30 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-542000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-562000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-581000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-534000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-446000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-214000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3564,9 +3797,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,45 +3914,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5204000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8031000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6458000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8253000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3116000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3805000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5116000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14237000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3628000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-2978000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3738,49 +3986,55 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2919000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2271000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1441000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2149000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3048000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>497000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9509000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>985000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>147000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>968000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SYF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17146000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15271000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16067000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19090000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17988000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16407000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14778000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13228000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12242000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11313000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10309000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9141000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,9 +805,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,9 +847,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,9 +907,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,9 +949,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -971,36 +991,39 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-339000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-327000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-301000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-240000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-196000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-174000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-147000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1010,9 +1033,12 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4896000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1758000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5875000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6471000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7415000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6687000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5234000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4087000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3839000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3814000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3310000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3190000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12250000</v>
+      </c>
+      <c r="E18" s="3">
         <v>13513000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10192000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12619000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10573000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9720000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9544000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9141000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8403000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7499000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6999000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5951000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,86 +1153,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8288000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8010000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8395000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7732000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6929000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6396000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5974000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5610000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5017000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4357000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3623000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2941000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4381000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5893000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2180000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5254000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3946000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3578000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3789000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3705000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3517000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3246000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>3106000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,87 +1276,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3962000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5503000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1797000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4887000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3644000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3324000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3570000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3531000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3386000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3142000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3376000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3010000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>946000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1282000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>412000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1140000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>854000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1229000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1319000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1317000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1277000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1163000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1257000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1120000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3016000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4221000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1385000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3747000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2790000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2095000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2251000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2214000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2109000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1979000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2119000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1890000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2974000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4179000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1343000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3747000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2790000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2095000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2251000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2214000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1979000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2119000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1890000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,9 +1528,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,12 +1549,12 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-160000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1509,9 +1570,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8288000</v>
+      </c>
+      <c r="E32" s="3">
         <v>8010000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8395000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7732000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6929000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6396000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5974000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5610000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5017000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4357000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3623000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2941000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2974000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4179000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1343000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3747000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2790000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1935000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2251000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2214000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1979000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2119000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1890000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2974000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4179000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1343000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3747000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2790000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1935000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2251000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2214000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1979000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2119000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1890000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,47 +1908,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10294000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8337000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11524000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12147000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9396000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11602000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9321000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12325000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11828000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2319000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1334000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1187000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1899,9 +1989,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1938,9 +2031,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1977,9 +2073,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2016,9 +2115,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2055,9 +2157,12 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2094,9 +2199,12 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2133,48 +2241,54 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2392000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2273000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2203000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2343000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2161000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1740000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1661000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1650000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1468000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1249000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1191000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1188000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,9 +2367,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2289,9 +2409,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104564000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95748000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95948000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>104826000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>106792000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95808000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>90207000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83990000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75707000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59085000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53462000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50115000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,8 +2532,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2440,9 +2571,12 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2479,48 +2613,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5765000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5316000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4690000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4718000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4099000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4287000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3809000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3740000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2814000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3085000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2261000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2065000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2557,48 +2697,54 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14191000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14507000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15775000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19866000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23996000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20799000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20147000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24279000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27460000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24321000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27815000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25890000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2635,9 +2781,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91691000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82093000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83247000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>89738000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>92114000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81574000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76011000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71386000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65229000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53125000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48880000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45787000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3051,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,7 +3070,7 @@
         <v>734000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2925,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16716000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14245000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10621000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12117000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8986000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6809000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5330000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3293000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1079000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12139000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12921000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11967000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14354000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14678000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14234000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14196000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12604000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10478000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5960000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4582000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4328000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2974000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4179000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1343000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3747000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2790000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1935000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2251000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2214000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1979000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2119000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1890000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E83" s="3">
         <v>390000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>383000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>367000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>302000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>254000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>219000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>174000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>131000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>104000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>96000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6694000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7099000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7487000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8990000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9342000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8575000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6511000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6184000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5340000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5679000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5637000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5516000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,8 +3809,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3627,9 +3848,12 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10234000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4814000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-498000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-261000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19036000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9542000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13364000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10803000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10068000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1066000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,32 +3995,33 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-476000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-542000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-562000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-581000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-534000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-446000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-214000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3800,9 +4034,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,48 +4160,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5284000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5204000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8031000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6458000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8253000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3116000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3805000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5116000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14237000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3628000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-2978000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3989,52 +4238,58 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2919000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2271000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1441000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2149000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3048000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>497000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9509000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>985000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>147000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>968000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
